--- a/data/case1/12/V1_14.xlsx
+++ b/data/case1/12/V1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999555779007</v>
+        <v>0.99999999758593883</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99834157940607438</v>
+        <v>0.99771098623859866</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99619169134963403</v>
+        <v>0.98907929634546798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1.0004842000786038</v>
+        <v>0.99231962491305825</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.99167797288390425</v>
+        <v>0.9824262207717267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.97124714848985283</v>
+        <v>0.95856686067711938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96821092307908052</v>
+        <v>0.95761960174501382</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.95820732870063285</v>
+        <v>0.95556622172429195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94473373810452299</v>
+        <v>0.95353252754346207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93772114539656459</v>
+        <v>0.9524352960478375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93667321173280982</v>
+        <v>0.95232577386547312</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93389357701464759</v>
+        <v>0.9523738802789079</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.92260711834587139</v>
+        <v>0.95391371497639144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.91843986098524721</v>
+        <v>0.95576327049479937</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.91584841039201548</v>
+        <v>0.95859101855179407</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.91334194526845658</v>
+        <v>0.96239030103470413</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.90963402877817401</v>
+        <v>0.97313720719840302</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.90852510670594655</v>
+        <v>0.97202829399716228</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99596778978595846</v>
+        <v>0.99665772022135468</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97712480860824336</v>
+        <v>0.98954052633357126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.97215982885579555</v>
+        <v>0.98814200611991343</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.97089531421229247</v>
+        <v>0.9868774951822552</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9891576681298202</v>
+        <v>0.97691099290309957</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9761375861089725</v>
+        <v>0.96389000999740959</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96968071727826799</v>
+        <v>0.9574329864915283</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.96920609236137523</v>
+        <v>0.95491297286641408</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.96661027363151741</v>
+        <v>0.95006852821778032</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.95578137621017656</v>
+        <v>0.92860258037769827</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.94841849266842981</v>
+        <v>0.91333354170752035</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.94184973453774101</v>
+        <v>0.9067635429863552</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.93419709213167468</v>
+        <v>0.89910986226204259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.93251778922350104</v>
+        <v>0.89743048813093118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.93199777183393628</v>
+        <v>0.89691045898095123</v>
       </c>
     </row>
   </sheetData>
